--- a/cypress/downloads/relatorio-cotacoes.xlsx
+++ b/cypress/downloads/relatorio-cotacoes.xlsx
@@ -157,10 +157,10 @@
     <t xml:space="preserve">Horário do relatório</t>
   </si>
   <si>
-    <t xml:space="preserve">17/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:34</t>
+    <t xml:space="preserve">18/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:18</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>5.29</v>
+        <v>5.23</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>5</v>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>3.81</v>
+        <v>3.83</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>10</v>
@@ -657,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>5.59</v>
+        <v>5.62</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>12</v>
@@ -671,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>15</v>
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>0.0342</v>
+        <v>0.0339</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>18</v>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>21</v>
@@ -713,7 +713,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>24</v>
@@ -797,7 +797,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="3">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>

--- a/cypress/downloads/relatorio-cotacoes.xlsx
+++ b/cypress/downloads/relatorio-cotacoes.xlsx
@@ -76,15 +76,6 @@
     <t xml:space="preserve">€</t>
   </si>
   <si>
-    <t xml:space="preserve">Franco Suíço</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iene</t>
   </si>
   <si>
@@ -103,15 +94,6 @@
     <t xml:space="preserve">£</t>
   </si>
   <si>
-    <t xml:space="preserve">Novo Sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peso Argentino</t>
   </si>
   <si>
@@ -136,31 +118,16 @@
     <t xml:space="preserve">MXN</t>
   </si>
   <si>
-    <t xml:space="preserve">Shekel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">₪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data das cotações</t>
   </si>
   <si>
     <t xml:space="preserve">Horário do relatório</t>
   </si>
   <si>
-    <t xml:space="preserve">18/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:18</t>
+    <t xml:space="preserve">19/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00</t>
   </si>
 </sst>
 </file>
@@ -615,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>5.23</v>
+        <v>5.24</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>5</v>
@@ -629,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>8</v>
@@ -643,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>10</v>
@@ -657,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>5.62</v>
+        <v>5.59</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>12</v>
@@ -671,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>5.79</v>
+        <v>0.0339</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>15</v>
@@ -685,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>0.0339</v>
+        <v>6.52</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>18</v>
@@ -699,38 +666,38 @@
         <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>6.52</v>
+        <v>0.006</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>21</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0054</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B9" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>24</v>
-      </c>
       <c r="D9" t="s" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>0.0061</v>
+        <v>0.0013</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>6</v>
@@ -738,73 +705,49 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3">
-        <v>0.0054</v>
+        <v>0.31</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.0013</v>
-      </c>
-      <c r="C12" t="s" s="2">
+      <c r="D14" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="D12" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>36</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>19</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -815,22 +758,14 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="C17" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s" s="5">
-        <v>40</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
